--- a/evaluations/GPT/2025-03-31_103806/snake/no_smells_01/evaluation.xlsx
+++ b/evaluations/GPT/2025-03-31_103806/snake/no_smells_01/evaluation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>2.5.3</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
   </si>
   <si>
     <t>2.3.2, 2.5.3</t>
@@ -558,14 +561,16 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="1">
         <v>0.0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -584,7 +589,7 @@
         <v>0.0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -599,13 +604,13 @@
         <v>0.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1">
         <v>0.0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -613,12 +618,12 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="3">
         <f>SUM(C2:C15)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">

--- a/evaluations/GPT/2025-03-31_103806/snake/no_smells_01/evaluation.xlsx
+++ b/evaluations/GPT/2025-03-31_103806/snake/no_smells_01/evaluation.xlsx
@@ -748,10 +748,7 @@
     <row r="27">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <f>SUM(E2:E26)</f>
-        <v>20</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
   </sheetData>
